--- a/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,19</t>
+          <t>16,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>7,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>31,35%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>12,99%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 30,93</t>
+          <t>-5,41; 43,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 21,21</t>
+          <t>-17,14; 31,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 63,27</t>
+          <t>-8,32; 123,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 43,62</t>
+          <t>-26,37; 70,3</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,51%</t>
+          <t>54,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>16,3%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 17,33</t>
+          <t>6,36; 27,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 9,61</t>
+          <t>-7,24; 17,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 34,44</t>
+          <t>17,23; 107,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,05; 21,22</t>
+          <t>-16,5; 58,08</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>7,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>26,39%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 15,87</t>
+          <t>-6,76; 14,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 16,88</t>
+          <t>-2,67; 18,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,24; 29,41</t>
+          <t>-16,02; 49,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,79; 36,92</t>
+          <t>-8,1; 78,48</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,63</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,95; 14,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 9,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 26,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 19,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,39</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>31,15%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17,43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,04; 19,91</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 14,24</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9,92; 63,19</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,6; 44,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>16,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,95</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>31,35%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,99%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-1.030262549806571</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>3.498344186085156</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.01384850715857442</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.05338413707939801</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,41; 43,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-17,14; 31,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-8,32; 123,05</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-26,37; 70,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-22.02554559092482</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-21.58400919126367</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2558358074375012</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2786164657886843</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.53515466873678</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>26.23208142521898</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.2564896402623768</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.5143869766928407</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>17,4</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>54,13%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>16,3%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,36; 27,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,24; 17,04</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>17,23; 107,92</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 58,08</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>19.59059763054413</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.914404153617536</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.4001097884677097</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.09316675600690227</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,99</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,87%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>26,39%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>7.402976435994795</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-9.699047721032104</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.1431014071170275</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.1612930020419599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 14,48</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,67; 18,78</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-16,02; 49,98</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 78,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>35.96041372821359</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.5855922885091</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.9976727463304934</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.4493428899761538</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.554276711266879</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>9.675648174065776</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.06271471772353938</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.1927314646674635</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.65692704774972</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-4.623704853000222</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1807701884630591</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.07766081524632232</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.13835528136761</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>24.4701518175699</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.3625896857770811</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.5983975748897765</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,39</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>6,56</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>31,15%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>17,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 19,91</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,18; 14,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>9,92; 63,19</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,6; 44,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.74011555727177</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.229777518759017</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1932983696091454</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1149202365276206</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.060368513367782</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.075460171233528</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.02308488493080638</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.06840837580258441</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>19.75826386075352</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.30790599556702</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.4137332442934717</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2900894502766557</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
